--- a/medicine/Enfance/Winnie_l'ourson___La_Maison_d'un_ours-comme-ça/Winnie_l'ourson___La_Maison_d'un_ours-comme-ça.xlsx
+++ b/medicine/Enfance/Winnie_l'ourson___La_Maison_d'un_ours-comme-ça/Winnie_l'ourson___La_Maison_d'un_ours-comme-ça.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Winnie_l%27ourson_:_La_Maison_d%27un_ours-comme-%C3%A7a</t>
+          <t>Winnie_l'ourson_:_La_Maison_d'un_ours-comme-ça</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Winnie l'ourson : La Maison d'un ours-comme-ça (en anglais: The House at Pooh Corner) est le deuxième et dernier volume des histoires de Winnie l'ourson, écrit par Alan Alexander Milne et paru en 1928. Il est précédé par Winnie l'ourson. Le livre se concentre sur les aventures d'un ours en peluche appelé Winnie l'ourson, et de ses amis : Cochonnet, Hi-hah, Christophe Robin, Hibou et Lapin, Kangou et Rou. Tigrou est introduit un peu plus loin dans le chapitre intitulé Dans lequel Tigre arrive dans la forêt et prend son petit déjeuner.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Winnie_l%27ourson_:_La_Maison_d%27un_ours-comme-%C3%A7a</t>
+          <t>Winnie_l'ourson_:_La_Maison_d'un_ours-comme-ça</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Chapitres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans lequel on bâtit une maison pour Hi-Han au Coin-de-Winnie.
 Dans lequel Tigre arrive dans la forêt et prend son petit déjeuner.
